--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_20_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_20_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164515.0608733814</v>
+        <v>247432.44037727</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14758048.28460539</v>
+        <v>15364668.20581513</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6406674.300327989</v>
+        <v>6131217.196024559</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.848256208035304</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -782,25 +782,25 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.84193026251983</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="F5" t="n">
-        <v>1.848256208035276</v>
+        <v>1.848256208035243</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="T8" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D9" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>89.71475821016372</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="V9" t="n">
         <v>92.6649492891022</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>39.70122005611995</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="I11" t="n">
-        <v>125.4713171199747</v>
+        <v>6.396723986041746</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>129.9328511683484</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V12" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>111.5456441849369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1450882057763</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>88.09081815943092</v>
+      </c>
+      <c r="Y14" t="n">
         <v>187.5255871663201</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>36.39469600159786</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>15.40229248514501</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.94304158872587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>380.1755759644</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>99.76882660971484</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>143.5836595683023</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5254541783477</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1159255221454</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.32739805120316</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H18" t="n">
-        <v>97.39669409571536</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>29.0087478103194</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>265.9502197469175</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>380.1755759644</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>380.1755759644</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>380.1755759644</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>88.09081815943092</v>
       </c>
       <c r="Y20" t="n">
-        <v>334.8586473094433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>13.45644170423172</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>143.1445213099196</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>192.7255568291602</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>52.21594625443454</v>
       </c>
       <c r="X22" t="n">
-        <v>47.36556639482284</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>153.1484038671801</v>
+        <v>217.1582542456337</v>
       </c>
       <c r="I23" t="n">
         <v>78.16360657708299</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>83.42124713825206</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>134.3807354218354</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H24" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.56170197145417</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>125.0721477169158</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>319.6559654196213</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>172.8350642370167</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>73.31651733578101</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>46.15138913755734</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.8205739680685</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>177.1015133326994</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.62795066089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>282.9813512030599</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>245.0329345485987</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>33.03485674487191</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>9.02179503411725</v>
       </c>
       <c r="G30" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S30" t="n">
         <v>137.5750138932992</v>
@@ -2927,10 +2927,10 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.17644954995815</v>
+        <v>37.01247764267757</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>103.1521955659658</v>
       </c>
       <c r="W32" t="n">
-        <v>68.22645590246971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>37.43065632139579</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U33" t="n">
         <v>225.8205739680685</v>
@@ -3170,10 +3170,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>240.0726657811941</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>160.2783998636179</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>178.1144279563373</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H35" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>133.6307518247547</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>381.2069562944923</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>31.16505155677431</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3362,7 +3362,7 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>61.86340664463273</v>
       </c>
     </row>
     <row r="37">
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>40.20690263795871</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>39.19398801432076</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>199.3865381917999</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>98.16682067383447</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3584,13 +3584,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>136.747817137958</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
         <v>225.8205739680685</v>
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>81.20871321246356</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>84.33162915224649</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>185.6279506608899</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>36.06688573135839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>188.0886716558697</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,10 +3821,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>141.1787398650436</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>12.16722289771872</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>70.95115008124098</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>185.9158911817642</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>198.4350914759794</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0.3064188869349874</v>
       </c>
       <c r="G44" t="n">
         <v>411.8707348436268</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,13 +4061,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>51.85254607929755</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8205739680685</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2293911801158356</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>86.31947454675849</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>185.9158911817642</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19.82590800208273</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>69.12296495893611</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>118.4200219157895</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>156.7444867130883</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>156.7444867130883</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>156.7444867130883</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>156.7444867130883</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.7444867130883</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>106.4464998170029</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>56.14851292091738</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>56.14851292091738</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>56.14851292091738</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>56.14851292091738</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.850526024831893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22.54896088111074</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.84601783796413</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>121.1430747948175</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>170.4401317516709</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199.1800281084985</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.8492079802444</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>117.551221084159</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>67.25323418807346</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>67.25323418807346</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>16.95524729198798</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>16.95524729198798</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.98360056216997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.4464998170028</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="C5" t="n">
-        <v>106.4464998170028</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="D5" t="n">
-        <v>56.14851292091735</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="E5" t="n">
-        <v>5.850526024831865</v>
+        <v>5.850526024831836</v>
       </c>
       <c r="F5" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G5" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H5" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I5" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J5" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K5" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L5" t="n">
-        <v>19.8259080020827</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M5" t="n">
-        <v>69.12296495893608</v>
+        <v>69.12296495893617</v>
       </c>
       <c r="N5" t="n">
-        <v>118.4200219157895</v>
+        <v>118.4200219157896</v>
       </c>
       <c r="O5" t="n">
-        <v>156.7444867130883</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="P5" t="n">
-        <v>156.7444867130883</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="Q5" t="n">
-        <v>156.7444867130883</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="R5" t="n">
-        <v>156.7444867130883</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="S5" t="n">
-        <v>156.7444867130883</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="T5" t="n">
-        <v>156.7444867130883</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="U5" t="n">
-        <v>156.7444867130883</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="V5" t="n">
-        <v>106.4464998170028</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="W5" t="n">
-        <v>106.4464998170028</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="X5" t="n">
-        <v>106.4464998170028</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="Y5" t="n">
-        <v>106.4464998170028</v>
+        <v>56.14851292091738</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154.8775612504264</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C6" t="n">
-        <v>154.8775612504264</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D6" t="n">
-        <v>104.5795743543409</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K6" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L6" t="n">
-        <v>50.3061417173242</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417768</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948175</v>
+        <v>148.9002556310311</v>
       </c>
       <c r="O6" t="n">
-        <v>170.4401317516709</v>
+        <v>170.4401317516711</v>
       </c>
       <c r="P6" t="n">
-        <v>199.1800281084985</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.1800281084985</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R6" t="n">
-        <v>199.1800281084985</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="S6" t="n">
-        <v>199.1800281084985</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1800281084985</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="U6" t="n">
-        <v>154.8775612504264</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="V6" t="n">
-        <v>154.8775612504264</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="W6" t="n">
-        <v>154.8775612504264</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="X6" t="n">
-        <v>154.8775612504264</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y6" t="n">
-        <v>154.8775612504264</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="M7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="N7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="O7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="P7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="R7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="S7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="T7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="U7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="V7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="W7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="X7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.98360056216997</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.413195943128176</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="C8" t="n">
-        <v>7.413195943128176</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="D8" t="n">
-        <v>7.413195943128176</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="E8" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="F8" t="n">
         <v>7.413195943128176</v>
@@ -4813,7 +4813,7 @@
         <v>75.16870670940374</v>
       </c>
       <c r="M8" t="n">
-        <v>166.9070065056148</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N8" t="n">
         <v>258.6453063018261</v>
@@ -4828,28 +4828,28 @@
         <v>370.6597971564088</v>
       </c>
       <c r="R8" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="S8" t="n">
         <v>277.0588382785278</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="U8" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="V8" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="W8" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="X8" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="Y8" t="n">
         <v>183.4578794006468</v>
-      </c>
-      <c r="T8" t="n">
-        <v>101.0141548210092</v>
-      </c>
-      <c r="U8" t="n">
-        <v>101.0141548210092</v>
-      </c>
-      <c r="V8" t="n">
-        <v>101.0141548210092</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7.413195943128176</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7.413195943128176</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191.6351227100635</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C9" t="n">
-        <v>191.6351227100635</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D9" t="n">
-        <v>98.03416383218244</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E9" t="n">
-        <v>98.03416383218244</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F9" t="n">
-        <v>98.03416383218244</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G9" t="n">
         <v>7.413195943128176</v>
@@ -4886,13 +4886,13 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K9" t="n">
-        <v>28.29609765201163</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L9" t="n">
-        <v>102.6982772648967</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M9" t="n">
-        <v>194.4365770611079</v>
+        <v>134.8197310560413</v>
       </c>
       <c r="N9" t="n">
         <v>226.5580308522524</v>
@@ -4907,28 +4907,28 @@
         <v>370.6597971564088</v>
       </c>
       <c r="R9" t="n">
-        <v>285.2360815879445</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S9" t="n">
-        <v>285.2360815879445</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T9" t="n">
-        <v>285.2360815879445</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U9" t="n">
-        <v>285.2360815879445</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="V9" t="n">
-        <v>191.6351227100635</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W9" t="n">
-        <v>191.6351227100635</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="X9" t="n">
-        <v>191.6351227100635</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="Y9" t="n">
-        <v>191.6351227100635</v>
+        <v>194.6151136988902</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.2627786323104</v>
+        <v>400.3029543659139</v>
       </c>
       <c r="C11" t="n">
-        <v>371.2627786323104</v>
+        <v>400.3029543659139</v>
       </c>
       <c r="D11" t="n">
-        <v>371.2627786323104</v>
+        <v>400.3029543659139</v>
       </c>
       <c r="E11" t="n">
-        <v>331.1605361513812</v>
+        <v>400.3029543659139</v>
       </c>
       <c r="F11" t="n">
-        <v>331.1605361513812</v>
+        <v>400.3029543659139</v>
       </c>
       <c r="G11" t="n">
-        <v>141.7407511348962</v>
+        <v>210.8831693494288</v>
       </c>
       <c r="H11" t="n">
-        <v>141.7407511348962</v>
+        <v>21.46338433294375</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678489</v>
+        <v>21.0337116067851</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058971</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123836</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020277</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652809</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652809</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652804</v>
+        <v>589.722739382399</v>
       </c>
       <c r="T11" t="n">
-        <v>560.6825636487954</v>
+        <v>589.722739382399</v>
       </c>
       <c r="U11" t="n">
-        <v>560.6825636487954</v>
+        <v>400.3029543659139</v>
       </c>
       <c r="V11" t="n">
-        <v>560.6825636487954</v>
+        <v>400.3029543659139</v>
       </c>
       <c r="W11" t="n">
-        <v>371.2627786323104</v>
+        <v>400.3029543659139</v>
       </c>
       <c r="X11" t="n">
-        <v>371.2627786323104</v>
+        <v>400.3029543659139</v>
       </c>
       <c r="Y11" t="n">
-        <v>371.2627786323104</v>
+        <v>400.3029543659139</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>448.0101957852228</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="C12" t="n">
-        <v>448.0101957852228</v>
+        <v>161.7819178834135</v>
       </c>
       <c r="D12" t="n">
-        <v>299.0757861239715</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="E12" t="n">
-        <v>299.0757861239715</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="F12" t="n">
-        <v>152.5412281508565</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="G12" t="n">
-        <v>15.00204697330561</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="H12" t="n">
-        <v>15.00204697330561</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="I12" t="n">
-        <v>15.00204697330561</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K12" t="n">
         <v>67.13418877024222</v>
@@ -5141,31 +5141,31 @@
         <v>739.5989987017068</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652809</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652804</v>
+        <v>676.9378076264293</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652804</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="T12" t="n">
-        <v>750.1023486652804</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="U12" t="n">
-        <v>750.1023486652804</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="V12" t="n">
-        <v>560.6825636487954</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="W12" t="n">
-        <v>560.6825636487954</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="X12" t="n">
-        <v>560.6825636487954</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="Y12" t="n">
-        <v>448.0101957852228</v>
+        <v>336.2349471645405</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="C13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="D13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230184</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170731</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396354</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="R13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="S13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="T13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="U13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="V13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="W13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="X13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829012</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C14" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D14" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E14" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F14" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G14" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H14" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678506</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058967</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123833</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020271</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R14" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S14" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="T14" t="n">
-        <v>520.5803211678661</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="U14" t="n">
-        <v>331.1605361513812</v>
+        <v>482.822241409741</v>
       </c>
       <c r="V14" t="n">
-        <v>141.7407511348962</v>
+        <v>482.822241409741</v>
       </c>
       <c r="W14" t="n">
-        <v>141.7407511348962</v>
+        <v>482.822241409741</v>
       </c>
       <c r="X14" t="n">
-        <v>141.7407511348962</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="Y14" t="n">
-        <v>141.7407511348962</v>
+        <v>204.4218319897905</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51.76436616683881</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C15" t="n">
-        <v>51.76436616683881</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D15" t="n">
-        <v>51.76436616683881</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E15" t="n">
-        <v>51.76436616683881</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F15" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G15" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H15" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K15" t="n">
-        <v>67.1341887702422</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L15" t="n">
         <v>183.5548280772651</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S15" t="n">
-        <v>598.8192732198768</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="T15" t="n">
-        <v>409.3994882033918</v>
+        <v>409.3994882033916</v>
       </c>
       <c r="U15" t="n">
-        <v>219.9797031869068</v>
+        <v>219.9797031869067</v>
       </c>
       <c r="V15" t="n">
-        <v>219.9797031869068</v>
+        <v>30.55991817042178</v>
       </c>
       <c r="W15" t="n">
-        <v>219.9797031869068</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X15" t="n">
-        <v>219.9797031869068</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y15" t="n">
-        <v>219.9797031869068</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G16" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H16" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L16" t="n">
         <v>27.03967056230183</v>
@@ -5478,10 +5478,10 @@
         <v>67.74542702829011</v>
       </c>
       <c r="X16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>884.168888850003</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="C17" t="n">
-        <v>515.2063719095913</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="D17" t="n">
-        <v>515.2063719095913</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E17" t="n">
-        <v>515.2063719095913</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F17" t="n">
-        <v>515.2063719095913</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G17" t="n">
-        <v>131.1906386122175</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H17" t="n">
-        <v>131.1906386122175</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I17" t="n">
-        <v>30.414046077152</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J17" t="n">
-        <v>92.46418127429661</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K17" t="n">
-        <v>236.1997673425841</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L17" t="n">
-        <v>451.418233688176</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M17" t="n">
-        <v>722.5596831006915</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N17" t="n">
-        <v>1002.702293013192</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O17" t="n">
-        <v>1253.89775439696</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P17" t="n">
-        <v>1433.786268216656</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q17" t="n">
-        <v>1520.7023038576</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R17" t="n">
-        <v>1520.7023038576</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S17" t="n">
-        <v>1375.668304293658</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T17" t="n">
-        <v>1163.016330376136</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U17" t="n">
-        <v>909.3638803537665</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V17" t="n">
-        <v>909.3638803537665</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W17" t="n">
-        <v>909.3638803537665</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="X17" t="n">
-        <v>909.3638803537665</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="Y17" t="n">
-        <v>909.3638803537665</v>
+        <v>393.8416170062756</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>583.5009678035549</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="C18" t="n">
-        <v>583.5009678035549</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="D18" t="n">
-        <v>434.5665581423037</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E18" t="n">
-        <v>275.3291031368482</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F18" t="n">
-        <v>128.7945451637332</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G18" t="n">
-        <v>128.7945451637332</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H18" t="n">
-        <v>30.414046077152</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I18" t="n">
-        <v>30.414046077152</v>
+        <v>15.00204697330573</v>
       </c>
       <c r="J18" t="n">
-        <v>48.55283455759706</v>
+        <v>15.00204697330573</v>
       </c>
       <c r="K18" t="n">
-        <v>157.7097378993243</v>
+        <v>67.13418877024233</v>
       </c>
       <c r="L18" t="n">
-        <v>350.807206395984</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M18" t="n">
-        <v>595.499712484664</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N18" t="n">
-        <v>861.0771460199827</v>
+        <v>512.5000587546607</v>
       </c>
       <c r="O18" t="n">
-        <v>1081.808817743</v>
+        <v>649.2101578476355</v>
       </c>
       <c r="P18" t="n">
-        <v>1239.632378105371</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q18" t="n">
-        <v>1295.214052212672</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R18" t="n">
-        <v>1295.214052212672</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S18" t="n">
-        <v>1295.214052212672</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T18" t="n">
-        <v>1295.214052212672</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U18" t="n">
-        <v>1295.214052212672</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="V18" t="n">
-        <v>1060.061943980929</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="W18" t="n">
-        <v>805.8245872527273</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="X18" t="n">
-        <v>597.9730870471944</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="Y18" t="n">
-        <v>597.9730870471944</v>
+        <v>152.5412281508565</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.414046077152</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C19" t="n">
-        <v>30.414046077152</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D19" t="n">
-        <v>30.414046077152</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E19" t="n">
-        <v>30.414046077152</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F19" t="n">
-        <v>30.414046077152</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G19" t="n">
-        <v>30.414046077152</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H19" t="n">
-        <v>30.414046077152</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I19" t="n">
-        <v>30.414046077152</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J19" t="n">
-        <v>30.414046077152</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K19" t="n">
-        <v>50.84789001160337</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L19" t="n">
-        <v>106.9019728236739</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M19" t="n">
-        <v>169.2614268008298</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N19" t="n">
-        <v>237.99563824859</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O19" t="n">
-        <v>281.1697185574769</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P19" t="n">
-        <v>299.050631680099</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q19" t="n">
-        <v>299.050631680099</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R19" t="n">
-        <v>299.050631680099</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S19" t="n">
-        <v>299.050631680099</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T19" t="n">
-        <v>299.050631680099</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U19" t="n">
-        <v>299.050631680099</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V19" t="n">
-        <v>299.050631680099</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W19" t="n">
-        <v>30.414046077152</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X19" t="n">
-        <v>30.414046077152</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.414046077152</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1182.461245969273</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="C20" t="n">
-        <v>1182.461245969273</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="D20" t="n">
-        <v>1182.461245969273</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="E20" t="n">
-        <v>798.4455126718997</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="F20" t="n">
-        <v>414.4297793745258</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G20" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H20" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I20" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J20" t="n">
-        <v>92.46418127429706</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K20" t="n">
-        <v>236.1997673425845</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L20" t="n">
-        <v>451.4182336881763</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M20" t="n">
-        <v>722.5596831006912</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N20" t="n">
-        <v>1002.702293013192</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O20" t="n">
-        <v>1253.89775439696</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P20" t="n">
-        <v>1433.786268216656</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q20" t="n">
-        <v>1520.7023038576</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R20" t="n">
-        <v>1520.7023038576</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S20" t="n">
-        <v>1520.7023038576</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="T20" t="n">
-        <v>1520.7023038576</v>
+        <v>482.822241409741</v>
       </c>
       <c r="U20" t="n">
-        <v>1520.7023038576</v>
+        <v>293.4024563932561</v>
       </c>
       <c r="V20" t="n">
-        <v>1520.7023038576</v>
+        <v>293.4024563932561</v>
       </c>
       <c r="W20" t="n">
-        <v>1520.7023038576</v>
+        <v>293.4024563932561</v>
       </c>
       <c r="X20" t="n">
-        <v>1520.7023038576</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y20" t="n">
-        <v>1182.461245969273</v>
+        <v>204.4218319897905</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>513.0389400249858</v>
+        <v>203.0474416122424</v>
       </c>
       <c r="C21" t="n">
-        <v>338.5859107438588</v>
+        <v>28.59441233111542</v>
       </c>
       <c r="D21" t="n">
-        <v>189.6515010826075</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E21" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F21" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G21" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H21" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I21" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J21" t="n">
-        <v>48.55283455759709</v>
+        <v>15.00204697330599</v>
       </c>
       <c r="K21" t="n">
-        <v>157.7097378993244</v>
+        <v>67.13418877024256</v>
       </c>
       <c r="L21" t="n">
-        <v>350.8072063959842</v>
+        <v>183.5548280772654</v>
       </c>
       <c r="M21" t="n">
-        <v>595.4997124846642</v>
+        <v>338.7690911140249</v>
       </c>
       <c r="N21" t="n">
-        <v>861.077146019983</v>
+        <v>512.5000587546607</v>
       </c>
       <c r="O21" t="n">
-        <v>1081.808817743</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P21" t="n">
-        <v>1239.632378105372</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q21" t="n">
-        <v>1295.214052212672</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R21" t="n">
-        <v>1295.214052212672</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S21" t="n">
-        <v>1150.623626647097</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T21" t="n">
-        <v>1150.623626647097</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="U21" t="n">
-        <v>1150.623626647097</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="V21" t="n">
-        <v>915.471518415354</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="W21" t="n">
-        <v>915.471518415354</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="X21" t="n">
-        <v>720.7992387899396</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="Y21" t="n">
-        <v>513.0389400249858</v>
+        <v>371.2627786323105</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C22" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D22" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E22" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F22" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G22" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H22" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I22" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J22" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K22" t="n">
-        <v>50.8478900116034</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L22" t="n">
-        <v>106.901972823674</v>
+        <v>27.0396705623018</v>
       </c>
       <c r="M22" t="n">
-        <v>169.2614268008299</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N22" t="n">
-        <v>237.9956382485901</v>
+        <v>66.41847329396344</v>
       </c>
       <c r="O22" t="n">
-        <v>281.169718557477</v>
+        <v>67.74542702829</v>
       </c>
       <c r="P22" t="n">
-        <v>299.0506316800991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Q22" t="n">
-        <v>299.0506316800991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="R22" t="n">
-        <v>299.0506316800991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="S22" t="n">
-        <v>299.0506316800991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="T22" t="n">
-        <v>299.0506316800991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="U22" t="n">
-        <v>299.0506316800991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="V22" t="n">
-        <v>299.0506316800991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="W22" t="n">
-        <v>299.0506316800991</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X22" t="n">
-        <v>251.2066252206821</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.414046077152</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1073.79184932419</v>
+        <v>1121.622528190048</v>
       </c>
       <c r="C23" t="n">
-        <v>1073.79184932419</v>
+        <v>752.6600112496367</v>
       </c>
       <c r="D23" t="n">
-        <v>1073.79184932419</v>
+        <v>752.6600112496367</v>
       </c>
       <c r="E23" t="n">
-        <v>688.0035967259462</v>
+        <v>752.6600112496367</v>
       </c>
       <c r="F23" t="n">
-        <v>277.0176919363386</v>
+        <v>341.6741064600291</v>
       </c>
       <c r="G23" t="n">
-        <v>277.0176919363386</v>
+        <v>341.6741064600291</v>
       </c>
       <c r="H23" t="n">
         <v>122.3223344947425</v>
@@ -6016,25 +6016,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S23" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T23" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U23" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V23" t="n">
-        <v>1837.396939561082</v>
+        <v>1495.088286451128</v>
       </c>
       <c r="W23" t="n">
-        <v>1837.396939561082</v>
+        <v>1495.088286451128</v>
       </c>
       <c r="X23" t="n">
-        <v>1463.931181300002</v>
+        <v>1121.622528190048</v>
       </c>
       <c r="Y23" t="n">
-        <v>1073.79184932419</v>
+        <v>1121.622528190048</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>693.0104463829875</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="C24" t="n">
-        <v>518.5574171018606</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="D24" t="n">
-        <v>369.6230074406093</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="E24" t="n">
-        <v>285.3591214423749</v>
+        <v>315.9833069106897</v>
       </c>
       <c r="F24" t="n">
-        <v>138.8245634692599</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G24" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H24" t="n">
         <v>43.36919653809306</v>
@@ -6092,28 +6092,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R24" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S24" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T24" t="n">
-        <v>1766.227047333487</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U24" t="n">
-        <v>1766.227047333487</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V24" t="n">
-        <v>1531.074939101744</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W24" t="n">
-        <v>1276.837582373542</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X24" t="n">
-        <v>1068.986082168009</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y24" t="n">
-        <v>861.2257834030556</v>
+        <v>475.2207619161452</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>491.4391430290292</v>
+        <v>212.305379466</v>
       </c>
       <c r="C25" t="n">
-        <v>491.4391430290292</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D25" t="n">
-        <v>341.3225036166935</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E25" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F25" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G25" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H25" t="n">
         <v>43.36919653809306</v>
@@ -6180,19 +6180,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U25" t="n">
-        <v>520.2893470405991</v>
+        <v>393.9538442962397</v>
       </c>
       <c r="V25" t="n">
-        <v>520.2893470405991</v>
+        <v>393.9538442962397</v>
       </c>
       <c r="W25" t="n">
-        <v>520.2893470405991</v>
+        <v>393.9538442962397</v>
       </c>
       <c r="X25" t="n">
-        <v>520.2893470405991</v>
+        <v>393.9538442962397</v>
       </c>
       <c r="Y25" t="n">
-        <v>520.2893470405991</v>
+        <v>393.9538442962397</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>707.8891122510336</v>
+        <v>1151.24757233027</v>
       </c>
       <c r="C26" t="n">
-        <v>707.8891122510336</v>
+        <v>782.2850553898588</v>
       </c>
       <c r="D26" t="n">
-        <v>707.8891122510336</v>
+        <v>782.2850553898588</v>
       </c>
       <c r="E26" t="n">
-        <v>707.8891122510336</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="F26" t="n">
-        <v>296.903207461426</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G26" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H26" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I26" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J26" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K26" t="n">
         <v>366.8168396232717</v>
@@ -6244,34 +6244,34 @@
         <v>1761.960612545596</v>
       </c>
       <c r="P26" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q26" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R26" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S26" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T26" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U26" t="n">
-        <v>2168.459826904652</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V26" t="n">
-        <v>1837.396939561081</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W26" t="n">
-        <v>1484.628284290967</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="X26" t="n">
-        <v>1484.628284290967</v>
+        <v>1541.386904306082</v>
       </c>
       <c r="Y26" t="n">
-        <v>1094.488952315155</v>
+        <v>1151.24757233027</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>438.4138720102957</v>
+        <v>719.1462132444533</v>
       </c>
       <c r="C27" t="n">
-        <v>263.9608427291687</v>
+        <v>544.6931839633263</v>
       </c>
       <c r="D27" t="n">
-        <v>263.9608427291687</v>
+        <v>395.758774302075</v>
       </c>
       <c r="E27" t="n">
-        <v>263.9608427291687</v>
+        <v>236.5213192966195</v>
       </c>
       <c r="F27" t="n">
-        <v>117.4262847560537</v>
+        <v>89.98676132350451</v>
       </c>
       <c r="G27" t="n">
-        <v>43.36919653809304</v>
+        <v>89.98676132350451</v>
       </c>
       <c r="H27" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I27" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J27" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K27" t="n">
         <v>246.6448318504519</v>
@@ -6335,22 +6335,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.516725807463</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U27" t="n">
-        <v>1343.415135940727</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V27" t="n">
-        <v>1108.263027708984</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W27" t="n">
-        <v>854.0256709807825</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="X27" t="n">
-        <v>646.1741707752496</v>
+        <v>1095.121849029475</v>
       </c>
       <c r="Y27" t="n">
-        <v>438.4138720102957</v>
+        <v>887.3615502645214</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.36919653809304</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="C28" t="n">
-        <v>43.36919653809304</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="D28" t="n">
-        <v>43.36919653809304</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K28" t="n">
-        <v>92.7168589798152</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L28" t="n">
         <v>185.7706748018941</v>
@@ -6423,13 +6423,13 @@
         <v>520.2893470405991</v>
       </c>
       <c r="W28" t="n">
-        <v>230.8721770036385</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X28" t="n">
-        <v>230.8721770036385</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.36919653809304</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1181.583316874863</v>
+        <v>1442.225413373459</v>
       </c>
       <c r="C29" t="n">
-        <v>812.620799934451</v>
+        <v>1073.262896433047</v>
       </c>
       <c r="D29" t="n">
-        <v>454.3551013277006</v>
+        <v>714.9971978262968</v>
       </c>
       <c r="E29" t="n">
-        <v>454.3551013277006</v>
+        <v>329.2089452280525</v>
       </c>
       <c r="F29" t="n">
-        <v>43.36919653809306</v>
+        <v>329.2089452280525</v>
       </c>
       <c r="G29" t="n">
         <v>43.36919653809306</v>
@@ -6463,19 +6463,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J29" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K29" t="n">
-        <v>366.8168396232721</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M29" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N29" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O29" t="n">
         <v>1761.960612545596</v>
@@ -6499,16 +6499,16 @@
         <v>2168.459826904653</v>
       </c>
       <c r="V29" t="n">
-        <v>1920.951812209099</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W29" t="n">
-        <v>1568.183156938984</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="X29" t="n">
-        <v>1568.183156938984</v>
+        <v>1442.225413373459</v>
       </c>
       <c r="Y29" t="n">
-        <v>1568.183156938984</v>
+        <v>1442.225413373459</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>534.6013197437564</v>
+        <v>535.1070147628129</v>
       </c>
       <c r="C30" t="n">
-        <v>360.1482904626295</v>
+        <v>360.6539854816859</v>
       </c>
       <c r="D30" t="n">
-        <v>360.1482904626295</v>
+        <v>211.7195758204347</v>
       </c>
       <c r="E30" t="n">
-        <v>326.7797482960922</v>
+        <v>52.48212081497917</v>
       </c>
       <c r="F30" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G30" t="n">
         <v>43.36919653809306</v>
@@ -6566,28 +6566,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R30" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S30" t="n">
-        <v>1627.262386835205</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T30" t="n">
-        <v>1432.552065309181</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U30" t="n">
-        <v>1204.450475442445</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="V30" t="n">
-        <v>1204.450475442445</v>
+        <v>1165.411208716615</v>
       </c>
       <c r="W30" t="n">
-        <v>950.2131187142431</v>
+        <v>911.1738519884138</v>
       </c>
       <c r="X30" t="n">
-        <v>742.3616185087103</v>
+        <v>703.322351782881</v>
       </c>
       <c r="Y30" t="n">
-        <v>534.6013197437564</v>
+        <v>703.322351782881</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>211.5020259430747</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="C31" t="n">
-        <v>211.5020259430747</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="D31" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E31" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F31" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G31" t="n">
         <v>43.36919653809306</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>949.3392845809428</v>
+        <v>429.1574491363373</v>
       </c>
       <c r="C32" t="n">
-        <v>949.3392845809428</v>
+        <v>429.1574491363373</v>
       </c>
       <c r="D32" t="n">
-        <v>949.3392845809428</v>
+        <v>429.1574491363373</v>
       </c>
       <c r="E32" t="n">
-        <v>949.3392845809428</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F32" t="n">
-        <v>538.3533797913353</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G32" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H32" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I32" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J32" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M32" t="n">
         <v>1038.14846457873</v>
@@ -6727,25 +6727,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S32" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T32" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U32" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V32" t="n">
-        <v>2168.459826904653</v>
+        <v>1932.131034707465</v>
       </c>
       <c r="W32" t="n">
-        <v>2099.544214881956</v>
+        <v>1579.362379437351</v>
       </c>
       <c r="X32" t="n">
-        <v>1726.078456620876</v>
+        <v>1205.896621176271</v>
       </c>
       <c r="Y32" t="n">
-        <v>1335.939124645065</v>
+        <v>815.7572892004591</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>672.7603567217845</v>
+        <v>450.153586535271</v>
       </c>
       <c r="C33" t="n">
-        <v>634.9516129627989</v>
+        <v>275.700557254144</v>
       </c>
       <c r="D33" t="n">
-        <v>486.0172033015477</v>
+        <v>275.700557254144</v>
       </c>
       <c r="E33" t="n">
-        <v>326.7797482960922</v>
+        <v>275.700557254144</v>
       </c>
       <c r="F33" t="n">
-        <v>180.2451903229772</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G33" t="n">
-        <v>43.36919653809306</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H33" t="n">
         <v>43.36919653809306</v>
@@ -6809,22 +6809,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T33" t="n">
-        <v>1766.227047333487</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U33" t="n">
-        <v>1538.125457466751</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="V33" t="n">
-        <v>1302.973349235008</v>
+        <v>1108.263027708984</v>
       </c>
       <c r="W33" t="n">
-        <v>1048.735992506806</v>
+        <v>865.7653855057576</v>
       </c>
       <c r="X33" t="n">
-        <v>1048.735992506806</v>
+        <v>657.9138853002248</v>
       </c>
       <c r="Y33" t="n">
-        <v>840.9756937418526</v>
+        <v>450.153586535271</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>358.391973440985</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="C34" t="n">
-        <v>358.391973440985</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="D34" t="n">
-        <v>358.391973440985</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E34" t="n">
-        <v>358.391973440985</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F34" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G34" t="n">
         <v>43.36919653809306</v>
@@ -6891,19 +6891,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U34" t="n">
-        <v>358.391973440985</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V34" t="n">
-        <v>358.391973440985</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W34" t="n">
-        <v>358.391973440985</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="X34" t="n">
-        <v>358.391973440985</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="Y34" t="n">
-        <v>358.391973440985</v>
+        <v>340.3757834483391</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1256.740097465976</v>
+        <v>1186.628457381848</v>
       </c>
       <c r="C35" t="n">
-        <v>1256.740097465976</v>
+        <v>817.6659404414363</v>
       </c>
       <c r="D35" t="n">
-        <v>1256.740097465976</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="E35" t="n">
-        <v>1256.740097465976</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="F35" t="n">
-        <v>845.7541926763687</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G35" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H35" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I35" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J35" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K35" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L35" t="n">
-        <v>669.587892771186</v>
+        <v>669.5878927711864</v>
       </c>
       <c r="M35" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N35" t="n">
         <v>1417.286540135166</v>
@@ -6955,34 +6955,34 @@
         <v>1761.960612545596</v>
       </c>
       <c r="P35" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q35" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R35" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S35" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T35" t="n">
-        <v>2168.459826904652</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U35" t="n">
-        <v>2168.459826904652</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V35" t="n">
-        <v>2033.47926950591</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="W35" t="n">
-        <v>2033.47926950591</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="X35" t="n">
-        <v>2033.47926950591</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="Y35" t="n">
-        <v>1643.339937530098</v>
+        <v>1573.22829744597</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>809.4046422439259</v>
+        <v>904.8600091750928</v>
       </c>
       <c r="C36" t="n">
-        <v>634.9516129627989</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D36" t="n">
-        <v>486.0172033015477</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E36" t="n">
-        <v>326.7797482960922</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F36" t="n">
-        <v>180.2451903229771</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G36" t="n">
-        <v>43.36919653809304</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H36" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I36" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J36" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K36" t="n">
         <v>246.6448318504519</v>
@@ -7046,22 +7046,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T36" t="n">
-        <v>1766.227047333487</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U36" t="n">
-        <v>1538.125457466751</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="V36" t="n">
-        <v>1302.973349235008</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="W36" t="n">
-        <v>1048.735992506806</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="X36" t="n">
-        <v>840.8844923012737</v>
+        <v>1135.563635735194</v>
       </c>
       <c r="Y36" t="n">
-        <v>840.8844923012737</v>
+        <v>1073.075346195161</v>
       </c>
     </row>
     <row r="37">
@@ -7080,25 +7080,25 @@
         <v>230.8721770036385</v>
       </c>
       <c r="E37" t="n">
-        <v>190.2591440360034</v>
+        <v>82.95908342124534</v>
       </c>
       <c r="F37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J37" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K37" t="n">
-        <v>92.7168589798152</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L37" t="n">
         <v>185.7706748018941</v>
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>919.0964918825944</v>
+        <v>1404.854736667761</v>
       </c>
       <c r="C38" t="n">
-        <v>919.0964918825944</v>
+        <v>1404.854736667761</v>
       </c>
       <c r="D38" t="n">
-        <v>919.0964918825944</v>
+        <v>1046.589038061011</v>
       </c>
       <c r="E38" t="n">
-        <v>533.3082392843501</v>
+        <v>660.8007854627665</v>
       </c>
       <c r="F38" t="n">
-        <v>122.3223344947425</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G38" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H38" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I38" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J38" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K38" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L38" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M38" t="n">
         <v>1038.14846457873</v>
@@ -7213,13 +7213,13 @@
         <v>2168.459826904653</v>
       </c>
       <c r="W38" t="n">
-        <v>2069.301422183608</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X38" t="n">
-        <v>1695.835663922528</v>
+        <v>1794.994068643573</v>
       </c>
       <c r="Y38" t="n">
-        <v>1305.696331946716</v>
+        <v>1404.854736667761</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>464.9088565162518</v>
+        <v>650.1671872384704</v>
       </c>
       <c r="C39" t="n">
-        <v>464.9088565162518</v>
+        <v>475.7141579573434</v>
       </c>
       <c r="D39" t="n">
-        <v>464.9088565162518</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="E39" t="n">
         <v>326.7797482960922</v>
@@ -7283,22 +7283,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T39" t="n">
-        <v>1766.227047333487</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U39" t="n">
-        <v>1538.125457466751</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="V39" t="n">
-        <v>1302.973349235008</v>
+        <v>1108.263027708984</v>
       </c>
       <c r="W39" t="n">
-        <v>1048.735992506806</v>
+        <v>1026.234024464071</v>
       </c>
       <c r="X39" t="n">
-        <v>840.8844923012737</v>
+        <v>818.3825242585385</v>
       </c>
       <c r="Y39" t="n">
-        <v>633.1241935363198</v>
+        <v>818.3825242585385</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.36919653809306</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="C40" t="n">
-        <v>43.36919653809306</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="D40" t="n">
-        <v>43.36919653809306</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="E40" t="n">
-        <v>43.36919653809306</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="F40" t="n">
-        <v>43.36919653809306</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G40" t="n">
         <v>43.36919653809306</v>
@@ -7362,22 +7362,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T40" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U40" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V40" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="W40" t="n">
-        <v>230.8721770036385</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="X40" t="n">
-        <v>43.36919653809306</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.36919653809306</v>
+        <v>296.6854897332227</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>906.8173443327362</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="C41" t="n">
-        <v>870.3861466242934</v>
+        <v>1446.728654694127</v>
       </c>
       <c r="D41" t="n">
-        <v>870.3861466242934</v>
+        <v>1446.728654694127</v>
       </c>
       <c r="E41" t="n">
-        <v>870.3861466242934</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F41" t="n">
-        <v>459.4002418346858</v>
+        <v>845.7541926763688</v>
       </c>
       <c r="G41" t="n">
-        <v>43.36919653809306</v>
+        <v>429.723147379776</v>
       </c>
       <c r="H41" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I41" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J41" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K41" t="n">
         <v>366.8168396232722</v>
@@ -7438,25 +7438,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S41" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T41" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U41" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V41" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W41" t="n">
-        <v>1683.55651637267</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="X41" t="n">
-        <v>1683.55651637267</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="Y41" t="n">
-        <v>1293.417184396858</v>
+        <v>1815.691171634539</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>640.6804069203831</v>
+        <v>660.4702325826747</v>
       </c>
       <c r="C42" t="n">
-        <v>498.0756191779149</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="D42" t="n">
-        <v>349.1412095166636</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E42" t="n">
-        <v>189.9037545112081</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F42" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G42" t="n">
         <v>43.36919653809306</v>
@@ -7514,28 +7514,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R42" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S42" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T42" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U42" t="n">
-        <v>1506.136709105928</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V42" t="n">
-        <v>1270.984600874186</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W42" t="n">
-        <v>1016.747244145984</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X42" t="n">
-        <v>808.8957439404512</v>
+        <v>1036.445868367697</v>
       </c>
       <c r="Y42" t="n">
-        <v>808.8957439404512</v>
+        <v>828.6855696027428</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.36919653809306</v>
+        <v>115.0370249029829</v>
       </c>
       <c r="C43" t="n">
-        <v>43.36919653809306</v>
+        <v>115.0370249029829</v>
       </c>
       <c r="D43" t="n">
         <v>43.36919653809306</v>
@@ -7572,7 +7572,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K43" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L43" t="n">
         <v>185.7706748018941</v>
@@ -7599,22 +7599,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T43" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U43" t="n">
-        <v>231.1630260146226</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V43" t="n">
-        <v>231.1630260146226</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="W43" t="n">
-        <v>231.1630260146226</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="X43" t="n">
-        <v>43.36919653809306</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.36919653809306</v>
+        <v>296.6854897332227</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1429.091331570417</v>
+        <v>459.7097558618929</v>
       </c>
       <c r="C44" t="n">
-        <v>1228.651845231044</v>
+        <v>459.7097558618929</v>
       </c>
       <c r="D44" t="n">
-        <v>870.3861466242934</v>
+        <v>459.7097558618929</v>
       </c>
       <c r="E44" t="n">
-        <v>870.3861466242934</v>
+        <v>459.7097558618929</v>
       </c>
       <c r="F44" t="n">
-        <v>459.4002418346858</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G44" t="n">
         <v>43.36919653809306</v>
@@ -7648,19 +7648,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J44" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K44" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232723</v>
       </c>
       <c r="L44" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M44" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N44" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O44" t="n">
         <v>1761.960612545596</v>
@@ -7675,25 +7675,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S44" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T44" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U44" t="n">
-        <v>2168.459826904653</v>
+        <v>1572.544009457209</v>
       </c>
       <c r="V44" t="n">
-        <v>2168.459826904653</v>
+        <v>1572.544009457209</v>
       </c>
       <c r="W44" t="n">
-        <v>1815.691171634539</v>
+        <v>1219.775354187095</v>
       </c>
       <c r="X44" t="n">
-        <v>1815.691171634539</v>
+        <v>846.3095959260147</v>
       </c>
       <c r="Y44" t="n">
-        <v>1815.691171634539</v>
+        <v>846.3095959260147</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>270.1985349902277</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C45" t="n">
-        <v>95.74550570910068</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D45" t="n">
-        <v>95.74550570910068</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E45" t="n">
-        <v>95.74550570910068</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F45" t="n">
         <v>43.36919653809306</v>
@@ -7727,19 +7727,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J45" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562319</v>
       </c>
       <c r="K45" t="n">
-        <v>246.6448318504519</v>
+        <v>246.644831850452</v>
       </c>
       <c r="L45" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104396</v>
       </c>
       <c r="M45" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789489</v>
       </c>
       <c r="N45" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873581</v>
       </c>
       <c r="O45" t="n">
         <v>1458.244633128146</v>
@@ -7757,22 +7757,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.516725807463</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U45" t="n">
-        <v>1343.415135940727</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V45" t="n">
-        <v>1108.263027708984</v>
+        <v>1302.973349235009</v>
       </c>
       <c r="W45" t="n">
-        <v>854.0256709807825</v>
+        <v>1048.735992506807</v>
       </c>
       <c r="X45" t="n">
-        <v>646.1741707752496</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y45" t="n">
-        <v>438.4138720102957</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.36919653809306</v>
+        <v>299.4967678970692</v>
       </c>
       <c r="C46" t="n">
-        <v>43.36919653809306</v>
+        <v>130.5605849691622</v>
       </c>
       <c r="D46" t="n">
-        <v>43.36919653809306</v>
+        <v>130.5605849691622</v>
       </c>
       <c r="E46" t="n">
         <v>43.36919653809306</v>
@@ -7809,49 +7809,49 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K46" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981526</v>
       </c>
       <c r="L46" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018942</v>
       </c>
       <c r="M46" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927333</v>
       </c>
       <c r="N46" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377462</v>
       </c>
       <c r="O46" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033661</v>
       </c>
       <c r="P46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470405993</v>
       </c>
       <c r="Q46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470405993</v>
       </c>
       <c r="R46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470405993</v>
       </c>
       <c r="S46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470405993</v>
       </c>
       <c r="T46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470405993</v>
       </c>
       <c r="U46" t="n">
-        <v>231.1630260146226</v>
+        <v>520.2893470405993</v>
       </c>
       <c r="V46" t="n">
-        <v>231.1630260146226</v>
+        <v>520.2893470405993</v>
       </c>
       <c r="W46" t="n">
-        <v>231.1630260146226</v>
+        <v>520.2893470405993</v>
       </c>
       <c r="X46" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405993</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.36919653809306</v>
+        <v>299.4967678970692</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.8855854554453</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,22 +22561,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.707320657778</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H2" t="n">
-        <v>323.1357392253592</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I2" t="n">
-        <v>148.9685811771479</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J2" t="n">
-        <v>45.63689302957772</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K2" t="n">
-        <v>17.14684397594775</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P2" t="n">
-        <v>1.810057396252972</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>50.01861771953256</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R2" t="n">
-        <v>115.3674336481769</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S2" t="n">
-        <v>172.6645079492214</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T2" t="n">
-        <v>166.3169052439262</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U2" t="n">
-        <v>201.4230125321233</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>336.4429316289289</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22640,19 +22640,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.4898938890125</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H3" t="n">
-        <v>103.9912405093721</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I3" t="n">
-        <v>70.13228042782632</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J3" t="n">
-        <v>46.18894706358476</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,25 +22670,25 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R3" t="n">
-        <v>42.88497470197427</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S3" t="n">
-        <v>106.0324861546552</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T3" t="n">
-        <v>196.7240278659264</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U3" t="n">
-        <v>176.0902156279161</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>238.8530528983998</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,49 +22719,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2753302804353</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H4" t="n">
-        <v>155.8644016137399</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I4" t="n">
-        <v>133.9289553808794</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J4" t="n">
-        <v>76.39903162313584</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K4" t="n">
-        <v>45.86784710562524</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L4" t="n">
-        <v>28.48717608127421</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M4" t="n">
-        <v>26.74453801706942</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N4" t="n">
-        <v>18.17171782551226</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O4" t="n">
-        <v>37.30279422357805</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P4" t="n">
-        <v>51.173501012562</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q4" t="n">
-        <v>91.57915019604307</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R4" t="n">
-        <v>145.11520646895</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5447863772357</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T4" t="n">
-        <v>224.8878160949084</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2799939522351</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22789,10 +22789,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>304.8880345935584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>332.1353630451372</v>
+        <v>332.1353630451371</v>
       </c>
       <c r="F5" t="n">
         <v>405.0277895336762</v>
@@ -22810,7 +22810,7 @@
         <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
-        <v>17.14684397594777</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22825,10 +22825,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.810057396253029</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953259</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R5" t="n">
         <v>115.3674336481769</v>
@@ -22837,7 +22837,7 @@
         <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
-        <v>216.1119122710508</v>
+        <v>166.3169052439262</v>
       </c>
       <c r="U5" t="n">
         <v>251.2180195592479</v>
@@ -22868,13 +22868,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>97.65005853751413</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>107.8500734282763</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>95.27420536625925</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
@@ -22883,10 +22883,10 @@
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>70.13228042782633</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358478</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,25 +22907,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.01751192697152</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
-        <v>92.6799817290989</v>
+        <v>42.88497470197422</v>
       </c>
       <c r="S6" t="n">
-        <v>155.8274931817798</v>
+        <v>106.0324861546551</v>
       </c>
       <c r="T6" t="n">
         <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
-        <v>182.0257804655494</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>183.0055801223006</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>207.8355409714282</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22965,28 +22965,28 @@
         <v>133.9289553808794</v>
       </c>
       <c r="J7" t="n">
-        <v>76.39903162313585</v>
+        <v>76.39903162313584</v>
       </c>
       <c r="K7" t="n">
-        <v>45.86784710562526</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L7" t="n">
-        <v>28.48717608127423</v>
+        <v>28.48717608127421</v>
       </c>
       <c r="M7" t="n">
-        <v>26.74453801706943</v>
+        <v>26.74453801706942</v>
       </c>
       <c r="N7" t="n">
-        <v>18.17171782551227</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O7" t="n">
-        <v>37.30279422357806</v>
+        <v>37.30279422357805</v>
       </c>
       <c r="P7" t="n">
-        <v>51.17350101256201</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q7" t="n">
-        <v>91.57915019604309</v>
+        <v>91.57915019604307</v>
       </c>
       <c r="R7" t="n">
         <v>145.11520646895</v>
@@ -23029,10 +23029,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>289.2654207831596</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>325.2567584078702</v>
       </c>
       <c r="G8" t="n">
         <v>413.4631744246258</v>
@@ -23068,13 +23068,13 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R8" t="n">
-        <v>7.366133540830873</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S8" t="n">
         <v>74.43607637216456</v>
       </c>
       <c r="T8" t="n">
-        <v>133.4238748015861</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U8" t="n">
         <v>251.1984878605957</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>256.5760194283108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669514</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>73.86823436076514</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>80.04354969921354</v>
       </c>
       <c r="D9" t="n">
-        <v>54.78011627553656</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>46.64450592778059</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H9" t="n">
         <v>102.729632124056</v>
@@ -23147,7 +23147,7 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S9" t="n">
         <v>153.4011028494393</v>
@@ -23156,7 +23156,7 @@
         <v>196.197498299121</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8766285924705</v>
+        <v>144.2573412586293</v>
       </c>
       <c r="V9" t="n">
         <v>140.1356378603231</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>342.2291500161418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>225.5722460637379</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H11" t="n">
-        <v>316.8938261062223</v>
+        <v>129.368238939902</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>119.0745931339329</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>77.08171901666373</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>25.91829388988668</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871009</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,19 +23339,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>17.51221439629037</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
         <v>100.8417573507397</v>
@@ -23360,7 +23360,7 @@
         <v>58.90455890409147</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>195.4095977920012</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377069</v>
       </c>
       <c r="V12" t="n">
-        <v>45.27499998310518</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>94.13705159236747</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>96.3995267637777</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23475,7 +23475,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V13" t="n">
-        <v>199.9216970693934</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23515,7 +23515,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
-        <v>63.29879285043046</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U14" t="n">
-        <v>63.64367339871023</v>
+        <v>63.64367339871026</v>
       </c>
       <c r="V14" t="n">
-        <v>140.2266713038148</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>281.6402825190381</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23585,7 +23585,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>108.674516391786</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.1637893657753</v>
@@ -23627,16 +23627,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>7.884010625681128</v>
+        <v>7.884010625681157</v>
       </c>
       <c r="U15" t="n">
-        <v>38.33818124377083</v>
+        <v>38.33818124377086</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831052</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>236.2926906757746</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>114.7859889482795</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H16" t="n">
         <v>153.4336708318196</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346025</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>357.7908000747547</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>177.7473046046874</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543628</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>32.25556922959657</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H17" t="n">
-        <v>310.0661072569077</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>35.20287667141739</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>184.0684315413183</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121489</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>152.2057855986642</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8070798189336</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I18" t="n">
-        <v>46.62311178695201</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.28561341314771</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S18" t="n">
-        <v>143.1445213099196</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T18" t="n">
-        <v>193.9718079957399</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8403006767461</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>45.27499998310515</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>176.673947966985</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>115.0308748441932</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7028819012923</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H19" t="n">
-        <v>150.7748151155418</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I19" t="n">
-        <v>116.7138713971991</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J19" t="n">
-        <v>35.92693121773036</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,28 +23931,28 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.64440455708331</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R19" t="n">
-        <v>119.375845712214</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S19" t="n">
-        <v>201.5685723516266</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T19" t="n">
-        <v>222.4419002931159</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2487694951909</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>20.57277858967353</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>1.754794107861755</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>26.70046977731141</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>32.25556922959657</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H20" t="n">
-        <v>310.0661072569077</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I20" t="n">
-        <v>99.76882660971482</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>35.20287667141736</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>143.5836595683023</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5254541783477</v>
+        <v>25.91829388988671</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1159255221454</v>
+        <v>63.64367339871026</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>281.6402825190381</v>
       </c>
       <c r="Y20" t="n">
-        <v>51.37929134661027</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>133.988623860407</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8070798189336</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H21" t="n">
-        <v>97.39669409571536</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I21" t="n">
-        <v>46.623111786952</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.2856134131477</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T21" t="n">
-        <v>193.9718079957399</v>
+        <v>7.884010625681157</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8403006767461</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>45.2749999831052</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>13.04742837431726</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24141,19 +24141,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7028819012923</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H22" t="n">
-        <v>150.7748151155418</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I22" t="n">
-        <v>116.7138713971991</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J22" t="n">
-        <v>35.92693121773034</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,34 +24168,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.64440455708329</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R22" t="n">
-        <v>119.375845712214</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S22" t="n">
-        <v>201.5685723516266</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T22" t="n">
-        <v>222.4419002931159</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2487694951909</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821565</v>
       </c>
       <c r="X22" t="n">
-        <v>178.3440889942143</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H23" t="n">
-        <v>151.1784008890029</v>
+        <v>87.16855051054932</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.0710926941158</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>74.22383331714889</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>10.68847697154848</v>
       </c>
       <c r="G24" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I24" t="n">
         <v>36.29946757904885</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>151.2702782104831</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I25" t="n">
         <v>109.1541654470835</v>
@@ -24420,7 +24420,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2350578157167</v>
+        <v>161.1629100988009</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>62.2744046526405</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>239.0356706066101</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>62.19071651125424</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H27" t="n">
-        <v>94.50081326185514</v>
+        <v>48.3494241242978</v>
       </c>
       <c r="I27" t="n">
         <v>36.29946757904885</v>
@@ -24575,7 +24575,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>2.730466849237928</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.95670269120484</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.8707348436268</v>
+        <v>128.8893836405669</v>
       </c>
       <c r="H29" t="n">
         <v>304.326804756183</v>
@@ -24739,13 +24739,13 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
-        <v>82.71932392153619</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>124.610223710529</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>136.0474173592666</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H30" t="n">
         <v>94.50081326185514</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24815,10 +24815,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>160.6555306319792</v>
+        <v>142.8195025392597</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H31" t="n">
         <v>148.5398113612452</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>208.0722578696039</v>
@@ -24976,10 +24976,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>224.6000629041691</v>
       </c>
       <c r="W32" t="n">
-        <v>281.0145128149433</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>135.27784266692</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>36.29946757904885</v>
@@ -25049,7 +25049,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T33" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,10 +25058,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>11.62231737972547</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H34" t="n">
         <v>148.5398113612452</v>
@@ -25131,13 +25131,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U34" t="n">
-        <v>125.9566579520988</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>108.4085703802537</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V35" t="n">
-        <v>194.1215066453802</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>5.030982361561314</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>135.368132093093</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>36.29946757904885</v>
@@ -25286,22 +25286,22 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T36" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>143.8192891326716</v>
       </c>
     </row>
     <row r="37">
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>106.2270600086105</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4515011109318</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>207.4895075499116</v>
       </c>
       <c r="G38" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>251.0741480435785</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25472,13 +25472,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>20.89726331744296</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>170.486269948456</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>95.5003510296908</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.5398113612452</v>
@@ -25602,7 +25602,7 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T40" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2350578157167</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>40.08170472814723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>329.2060060396491</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>193.8416984163921</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T41" t="n">
         <v>208.0722578696039</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>31.52975912327216</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>94.50081326185514</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S42" t="n">
         <v>137.5750138932992</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>193.6057623057588</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>77.66432293697137</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25839,10 +25839,10 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T43" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>39.79376420727294</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>166.8378002950281</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.5696268547765</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25949,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>93.21666631408632</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H45" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185513</v>
       </c>
       <c r="I45" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904884</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>31.66886087721431</v>
+        <v>31.6688608772143</v>
       </c>
       <c r="S45" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5435940233616</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>60.11448809981069</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26046,7 +26046,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J46" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923923</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>39.79376420727294</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>320248.5747079582</v>
+        <v>261488.9223132072</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>320248.5747079581</v>
+        <v>320248.5747079582</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>449927.0402889126</v>
+        <v>449927.0402889127</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449927.0402889127</v>
+        <v>449927.0402889125</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>584334.5928181648</v>
+        <v>449927.0402889128</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>584334.592818165</v>
+        <v>449927.0402889126</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>697283.8630439839</v>
+        <v>697283.8630439838</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>697283.8630439839</v>
+        <v>697283.8630439838</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>697283.8630439838</v>
+        <v>697283.8630439837</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>697283.8630439839</v>
+        <v>697283.8630439837</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>697283.8630439839</v>
+        <v>697283.863043984</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>697283.863043984</v>
+        <v>697283.8630439839</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94888.46658013566</v>
+        <v>77478.19920391326</v>
       </c>
       <c r="C2" t="n">
         <v>94888.46658013568</v>
@@ -26328,34 +26328,34 @@
         <v>133311.7156411592</v>
       </c>
       <c r="G2" t="n">
-        <v>173136.1756498266</v>
+        <v>133311.7156411592</v>
       </c>
       <c r="H2" t="n">
-        <v>173136.1756498266</v>
+        <v>133311.7156411592</v>
       </c>
       <c r="I2" t="n">
         <v>206602.626087106</v>
       </c>
       <c r="J2" t="n">
-        <v>206602.6260871059</v>
+        <v>206602.626087106</v>
       </c>
       <c r="K2" t="n">
-        <v>206602.626087106</v>
+        <v>206602.6260871061</v>
       </c>
       <c r="L2" t="n">
-        <v>206602.626087106</v>
+        <v>206602.6260871061</v>
       </c>
       <c r="M2" t="n">
-        <v>206602.626087106</v>
+        <v>206602.6260871061</v>
       </c>
       <c r="N2" t="n">
-        <v>206602.626087106</v>
+        <v>206602.6260871061</v>
       </c>
       <c r="O2" t="n">
-        <v>206602.626087106</v>
+        <v>206602.6260871061</v>
       </c>
       <c r="P2" t="n">
-        <v>206602.626087106</v>
+        <v>206602.6260871061</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>399106.8526518422</v>
+        <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>80322.73427769342</v>
       </c>
       <c r="D3" t="n">
-        <v>65327.89037938122</v>
+        <v>65327.8903793811</v>
       </c>
       <c r="E3" t="n">
         <v>101335.4572062676</v>
@@ -26380,31 +26380,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>181739.8658516862</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>147997.8543656403</v>
+        <v>324062.4092105521</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.56481860493</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>12815.64136855703</v>
       </c>
       <c r="L3" t="n">
-        <v>10849.99655702616</v>
+        <v>10849.99655702615</v>
       </c>
       <c r="M3" t="n">
-        <v>23639.65040155415</v>
+        <v>23639.65040155425</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>46361.41245424673</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.96378040239005</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>30.96378040239004</v>
+        <v>30.96378040239008</v>
       </c>
       <c r="D4" t="n">
         <v>67.14558386063672</v>
@@ -26432,10 +26432,10 @@
         <v>137.8001180723342</v>
       </c>
       <c r="G4" t="n">
-        <v>270.7602176271824</v>
+        <v>137.8001180723342</v>
       </c>
       <c r="H4" t="n">
-        <v>270.7602176271826</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469136</v>
@@ -26459,7 +26459,7 @@
         <v>384.3219252469136</v>
       </c>
       <c r="P4" t="n">
-        <v>384.3219252469136</v>
+        <v>384.3219252469137</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45306.68319048216</v>
+        <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26484,16 +26484,16 @@
         <v>23358.20041161359</v>
       </c>
       <c r="G5" t="n">
-        <v>38686.60227808919</v>
+        <v>23358.20041161359</v>
       </c>
       <c r="H5" t="n">
-        <v>38686.60227808919</v>
+        <v>23358.20041161358</v>
       </c>
       <c r="I5" t="n">
         <v>51571.48185587223</v>
       </c>
       <c r="J5" t="n">
-        <v>51571.48185587222</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="K5" t="n">
         <v>51571.48185587223</v>
@@ -26502,16 +26502,16 @@
         <v>51571.48185587223</v>
       </c>
       <c r="M5" t="n">
-        <v>51571.48185587222</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="N5" t="n">
         <v>51571.48185587223</v>
       </c>
       <c r="O5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587225</v>
       </c>
       <c r="P5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587225</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-364151.5481279397</v>
+        <v>-279275.9902761267</v>
       </c>
       <c r="C6" t="n">
-        <v>34955.30452390252</v>
+        <v>-32231.46617697716</v>
       </c>
       <c r="D6" t="n">
-        <v>-18847.20759033434</v>
+        <v>-6531.408536435877</v>
       </c>
       <c r="E6" t="n">
-        <v>-3713.804113828895</v>
+        <v>7260.851703302253</v>
       </c>
       <c r="F6" t="n">
-        <v>97621.65309243865</v>
+        <v>108596.3089095698</v>
       </c>
       <c r="G6" t="n">
-        <v>-57266.08596606895</v>
+        <v>108596.3089095699</v>
       </c>
       <c r="H6" t="n">
-        <v>124473.7798856173</v>
+        <v>108596.3089095699</v>
       </c>
       <c r="I6" t="n">
-        <v>-964.4121758163747</v>
+        <v>-170176.9249161816</v>
       </c>
       <c r="J6" t="n">
-        <v>134004.8773712189</v>
+        <v>153885.4842943706</v>
       </c>
       <c r="K6" t="n">
-        <v>147033.442189824</v>
+        <v>141069.8429258136</v>
       </c>
       <c r="L6" t="n">
-        <v>136183.4456327978</v>
+        <v>143035.4877373445</v>
       </c>
       <c r="M6" t="n">
-        <v>123393.7917882697</v>
+        <v>130245.8338928164</v>
       </c>
       <c r="N6" t="n">
-        <v>147033.4421898239</v>
+        <v>153885.4842943706</v>
       </c>
       <c r="O6" t="n">
-        <v>100672.0297355771</v>
+        <v>153885.4842943707</v>
       </c>
       <c r="P6" t="n">
-        <v>147033.442189824</v>
+        <v>153885.4842943707</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>396.859943267568</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26752,10 +26752,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="G3" t="n">
-        <v>714.3085898831956</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="H3" t="n">
-        <v>714.3085898831957</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376841</v>
@@ -26779,7 +26779,7 @@
         <v>853.7106645376841</v>
       </c>
       <c r="P3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376842</v>
       </c>
     </row>
     <row r="4">
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="D4" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F4" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="G4" t="n">
-        <v>380.1755759644</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H4" t="n">
-        <v>380.1755759644</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="J4" t="n">
-        <v>542.114956726163</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="K4" t="n">
         <v>542.1149567261632</v>
@@ -26822,16 +26822,16 @@
         <v>542.1149567261632</v>
       </c>
       <c r="M4" t="n">
-        <v>542.114956726163</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="N4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="O4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="P4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>396.859943267568</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>70.54171547840377</v>
       </c>
       <c r="D3" t="n">
-        <v>60.73137549659759</v>
+        <v>60.73137549659748</v>
       </c>
       <c r="E3" t="n">
         <v>90.87862214873928</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>165.8386489702908</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>139.4020746544884</v>
+        <v>305.2407236247794</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="D4" t="n">
-        <v>42.86994226197757</v>
+        <v>42.86994226197751</v>
       </c>
       <c r="E4" t="n">
-        <v>94.8606378772179</v>
+        <v>94.86063787721804</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>192.6499887980799</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>161.9393807617632</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79500702712437</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="L4" t="n">
-        <v>42.86994226197757</v>
+        <v>42.86994226197751</v>
       </c>
       <c r="M4" t="n">
-        <v>94.86063787721767</v>
+        <v>94.86063787721804</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>192.6499887980799</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="L4" t="n">
-        <v>42.86994226197757</v>
+        <v>42.86994226197751</v>
       </c>
       <c r="M4" t="n">
-        <v>94.8606378772179</v>
+        <v>94.86063787721804</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>192.6499887980799</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.595416857357056</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H2" t="n">
-        <v>16.33906289040796</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I2" t="n">
-        <v>61.50730839325797</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J2" t="n">
-        <v>135.4090114971086</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K2" t="n">
-        <v>202.9430070690328</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L2" t="n">
-        <v>251.7687457173739</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M2" t="n">
-        <v>280.1412402543974</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>279.2080706237156</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>268.8097920250189</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P2" t="n">
-        <v>229.4229383590166</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q2" t="n">
-        <v>172.2870721549169</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R2" t="n">
-        <v>100.2181041659553</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S2" t="n">
-        <v>36.35556163702395</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T2" t="n">
-        <v>6.983937293080517</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H3" t="n">
-        <v>8.244203727124386</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I3" t="n">
-        <v>29.39009957217367</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J3" t="n">
-        <v>80.64867960308193</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L3" t="n">
-        <v>157.3072689909255</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>191.9290409491429</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>181.1367191104579</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>192.3912514715691</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>163.0046057545602</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>108.96426215905</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R3" t="n">
-        <v>52.99952223486505</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S3" t="n">
-        <v>15.85567792205802</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T3" t="n">
-        <v>3.440700828895235</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H4" t="n">
-        <v>6.362770893699701</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I4" t="n">
-        <v>21.52151954637894</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J4" t="n">
-        <v>50.59638981626026</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K4" t="n">
-        <v>83.14541106491014</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L4" t="n">
-        <v>106.3975001999641</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M4" t="n">
-        <v>112.1812459305356</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N4" t="n">
-        <v>109.5138266397209</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O4" t="n">
-        <v>101.1537442282647</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P4" t="n">
-        <v>86.55450303658561</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q4" t="n">
-        <v>59.92585143340277</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R4" t="n">
-        <v>32.17818490821952</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S4" t="n">
-        <v>12.47181165973652</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T4" t="n">
-        <v>3.057773333373064</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>16.33906289040796</v>
       </c>
       <c r="I5" t="n">
-        <v>61.50730839325796</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J5" t="n">
         <v>135.4090114971086</v>
@@ -31293,7 +31293,7 @@
         <v>202.9430070690328</v>
       </c>
       <c r="L5" t="n">
-        <v>251.7687457173738</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M5" t="n">
         <v>280.1412402543974</v>
@@ -31305,7 +31305,7 @@
         <v>268.8097920250189</v>
       </c>
       <c r="P5" t="n">
-        <v>229.4229383590165</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q5" t="n">
         <v>172.2870721549169</v>
@@ -31317,7 +31317,7 @@
         <v>36.35556163702395</v>
       </c>
       <c r="T5" t="n">
-        <v>6.983937293080516</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U5" t="n">
         <v>0.1276333485885645</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8536232741981651</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H6" t="n">
         <v>8.244203727124386</v>
@@ -31366,7 +31366,7 @@
         <v>29.39009957217367</v>
       </c>
       <c r="J6" t="n">
-        <v>80.64867960308192</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -31375,16 +31375,16 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>163.8914845489273</v>
+        <v>191.929040949143</v>
       </c>
       <c r="N6" t="n">
-        <v>181.1367191104579</v>
+        <v>181.136719110458</v>
       </c>
       <c r="O6" t="n">
-        <v>192.3912514715691</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0046057545601</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31393,13 +31393,13 @@
         <v>52.99952223486505</v>
       </c>
       <c r="S6" t="n">
-        <v>15.85567792205801</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T6" t="n">
-        <v>3.440700828895234</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05615942593408983</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,10 +31436,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7156490780234832</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H7" t="n">
-        <v>6.3627708936997</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I7" t="n">
         <v>21.52151954637894</v>
@@ -31448,7 +31448,7 @@
         <v>50.59638981626026</v>
       </c>
       <c r="K7" t="n">
-        <v>83.14541106491012</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L7" t="n">
         <v>106.3975001999641</v>
@@ -31463,13 +31463,13 @@
         <v>101.1537442282647</v>
       </c>
       <c r="P7" t="n">
-        <v>86.5545030365856</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q7" t="n">
-        <v>59.92585143340276</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R7" t="n">
-        <v>32.17818490821951</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S7" t="n">
         <v>12.47181165973652</v>
@@ -31606,16 +31606,16 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K9" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>234.7989832111205</v>
+        <v>195.6737869523496</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7876250036813</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O9" t="n">
         <v>234.1788327264121</v>
@@ -31861,7 +31861,7 @@
         <v>225.2762668628873</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936722</v>
       </c>
       <c r="R12" t="n">
         <v>73.2466083355008</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.871592321138473</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H17" t="n">
-        <v>29.40869485885939</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I17" t="n">
-        <v>110.7070629606911</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J17" t="n">
-        <v>243.7228087662267</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K17" t="n">
-        <v>365.2773117200183</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L17" t="n">
-        <v>453.1588052180599</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M17" t="n">
-        <v>504.2264851591062</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N17" t="n">
-        <v>512.3853968415409</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O17" t="n">
-        <v>483.8310006982202</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P17" t="n">
-        <v>412.9385652701141</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q17" t="n">
-        <v>310.0996652693424</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R17" t="n">
-        <v>180.3826611427147</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S17" t="n">
-        <v>65.43641001794302</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T17" t="n">
-        <v>12.57039538578367</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2297273856910778</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.536437344277062</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H18" t="n">
-        <v>14.83875014078111</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I18" t="n">
-        <v>52.89926821304799</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J18" t="n">
-        <v>145.1596352327728</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K18" t="n">
-        <v>248.100937299336</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L18" t="n">
-        <v>333.6023277562982</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M18" t="n">
-        <v>389.2981814863415</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N18" t="n">
-        <v>399.6017459573927</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O18" t="n">
-        <v>365.5575290131482</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P18" t="n">
-        <v>293.3921451540998</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1248792449106</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R18" t="n">
-        <v>95.39389055081624</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S18" t="n">
-        <v>28.53864979391822</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T18" t="n">
-        <v>6.192920699081665</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1010814042287541</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.288097457166418</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H19" t="n">
-        <v>11.4523573918978</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I19" t="n">
-        <v>38.73660353005921</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J19" t="n">
-        <v>91.06849022166575</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K19" t="n">
-        <v>149.6535045689711</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L19" t="n">
-        <v>191.5049619499964</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M19" t="n">
-        <v>201.9151313992777</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N19" t="n">
-        <v>197.1140408771121</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O19" t="n">
-        <v>182.0667205820316</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P19" t="n">
-        <v>155.7895324558366</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.8605970723625</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R19" t="n">
-        <v>57.91754566495548</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S19" t="n">
-        <v>22.44802568534566</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T19" t="n">
-        <v>5.503689135165604</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07025986129998653</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.871592321138473</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H20" t="n">
-        <v>29.40869485885939</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I20" t="n">
-        <v>110.7070629606911</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J20" t="n">
-        <v>243.7228087662267</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K20" t="n">
-        <v>365.2773117200184</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L20" t="n">
-        <v>453.15880521806</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M20" t="n">
-        <v>504.2264851591063</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N20" t="n">
-        <v>512.385396841541</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O20" t="n">
-        <v>483.8310006982203</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P20" t="n">
-        <v>412.9385652701142</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q20" t="n">
-        <v>310.0996652693425</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R20" t="n">
-        <v>180.3826611427148</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S20" t="n">
-        <v>65.43641001794302</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T20" t="n">
-        <v>12.57039538578367</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2297273856910778</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.536437344277063</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H21" t="n">
-        <v>14.83875014078111</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I21" t="n">
-        <v>52.899268213048</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J21" t="n">
-        <v>145.1596352327728</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K21" t="n">
-        <v>248.100937299336</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L21" t="n">
-        <v>333.6023277562982</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M21" t="n">
-        <v>389.2981814863416</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N21" t="n">
-        <v>399.6017459573927</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O21" t="n">
-        <v>365.5575290131483</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P21" t="n">
-        <v>293.3921451540998</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.1248792449107</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R21" t="n">
-        <v>95.39389055081625</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S21" t="n">
-        <v>28.53864979391822</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T21" t="n">
-        <v>6.192920699081666</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1010814042287542</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.288097457166418</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H22" t="n">
-        <v>11.4523573918978</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I22" t="n">
-        <v>38.73660353005921</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J22" t="n">
-        <v>91.06849022166577</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K22" t="n">
-        <v>149.6535045689711</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L22" t="n">
-        <v>191.5049619499964</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M22" t="n">
-        <v>201.9151313992777</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N22" t="n">
-        <v>197.1140408771121</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O22" t="n">
-        <v>182.0667205820316</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P22" t="n">
-        <v>155.7895324558366</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.8605970723626</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R22" t="n">
-        <v>57.91754566495549</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S22" t="n">
-        <v>22.44802568534567</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T22" t="n">
-        <v>5.503689135165605</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07025986129998654</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508276</v>
       </c>
       <c r="H44" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958414</v>
       </c>
       <c r="I44" t="n">
         <v>132.3122829933229</v>
       </c>
       <c r="J44" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409258</v>
       </c>
       <c r="K44" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258712</v>
       </c>
       <c r="L44" t="n">
         <v>541.5957615840426</v>
       </c>
       <c r="M44" t="n">
-        <v>602.6296390934779</v>
+        <v>602.629639093478</v>
       </c>
       <c r="N44" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839009</v>
       </c>
       <c r="O44" t="n">
-        <v>578.2538401190903</v>
+        <v>578.2538401190905</v>
       </c>
       <c r="P44" t="n">
         <v>493.5262741662298</v>
       </c>
       <c r="Q44" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928396</v>
       </c>
       <c r="R44" t="n">
         <v>215.5855378141319</v>
@@ -34450,10 +34450,10 @@
         <v>173.4885040076062</v>
       </c>
       <c r="K45" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913578</v>
       </c>
       <c r="L45" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616799</v>
       </c>
       <c r="M45" t="n">
         <v>465.2723121730378</v>
@@ -34471,13 +34471,13 @@
         <v>234.3999545349506</v>
       </c>
       <c r="R45" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S45" t="n">
         <v>34.10815721053859</v>
       </c>
       <c r="T45" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057845</v>
       </c>
       <c r="U45" t="n">
         <v>0.1208081129062761</v>
@@ -34520,10 +34520,10 @@
         <v>1.539478247526971</v>
       </c>
       <c r="H46" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I46" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017476</v>
       </c>
       <c r="J46" t="n">
         <v>108.8411121001569</v>
@@ -34544,7 +34544,7 @@
         <v>217.5982526595396</v>
       </c>
       <c r="P46" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099893</v>
       </c>
       <c r="Q46" t="n">
         <v>128.9103103451903</v>
@@ -34556,10 +34556,10 @@
         <v>26.82890727735639</v>
       </c>
       <c r="T46" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978876</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419854</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,16 +34704,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.00233074738662</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.75288921105129</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29.03019834022993</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34941,13 +34941,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16.00233074738659</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M5" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N5" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O5" t="n">
         <v>38.71158060333218</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>46.7904456112669</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
-        <v>21.75745062690902</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N6" t="n">
-        <v>49.79500702712463</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690909</v>
       </c>
       <c r="P6" t="n">
-        <v>29.0301983402299</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>21.09384010998329</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>75.15371678069201</v>
       </c>
       <c r="M9" t="n">
+        <v>53.53975303033131</v>
+      </c>
+      <c r="N9" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="N9" t="n">
-        <v>32.44591292034803</v>
       </c>
       <c r="O9" t="n">
         <v>91.5825882819677</v>
@@ -35509,7 +35509,7 @@
         <v>91.30185944855702</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440765063</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>62.67690423954039</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K17" t="n">
-        <v>145.1874606750378</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L17" t="n">
-        <v>217.3923902480727</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M17" t="n">
-        <v>273.8802519318335</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N17" t="n">
-        <v>282.97233324495</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O17" t="n">
-        <v>253.7327892765335</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P17" t="n">
-        <v>181.7055695148446</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q17" t="n">
-        <v>87.79397539489295</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.32200856610612</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>110.259498324977</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L18" t="n">
-        <v>195.047947976424</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M18" t="n">
-        <v>247.1641475643232</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N18" t="n">
-        <v>268.2600338740593</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O18" t="n">
-        <v>222.9612845687038</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P18" t="n">
-        <v>159.4177377397695</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.14310515888911</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.64024639843572</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>56.62028566875813</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M19" t="n">
-        <v>62.98934745167264</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N19" t="n">
-        <v>69.42849641187891</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O19" t="n">
-        <v>43.61018213018883</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P19" t="n">
-        <v>18.06152840668895</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.67690423954042</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K20" t="n">
-        <v>145.1874606750378</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L20" t="n">
-        <v>217.3923902480727</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M20" t="n">
-        <v>273.8802519318335</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N20" t="n">
-        <v>282.9723332449501</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O20" t="n">
-        <v>253.7327892765336</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P20" t="n">
-        <v>181.7055695148446</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q20" t="n">
-        <v>87.79397539489301</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.32200856610615</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>110.259498324977</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L21" t="n">
-        <v>195.047947976424</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M21" t="n">
-        <v>247.1641475643233</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N21" t="n">
-        <v>268.2600338740594</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O21" t="n">
-        <v>222.9612845687038</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P21" t="n">
-        <v>159.4177377397696</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.14310515888914</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.64024639843575</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>56.62028566875816</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M22" t="n">
-        <v>62.98934745167267</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N22" t="n">
-        <v>69.42849641187894</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O22" t="n">
-        <v>43.61018213018886</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P22" t="n">
-        <v>18.06152840668895</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38025,19 +38025,19 @@
         <v>305.8293466140554</v>
       </c>
       <c r="M44" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662053</v>
       </c>
       <c r="N44" t="n">
-        <v>382.9677530873099</v>
+        <v>382.96775308731</v>
       </c>
       <c r="O44" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974037</v>
       </c>
       <c r="P44" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109603</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183901</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093953</v>
       </c>
       <c r="K45" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169988</v>
       </c>
       <c r="L45" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818057</v>
       </c>
       <c r="M45" t="n">
         <v>323.1382782510195</v>
       </c>
       <c r="N45" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319511</v>
       </c>
       <c r="O45" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440061</v>
       </c>
       <c r="P45" t="n">
-        <v>216.6751672332329</v>
+        <v>216.675167233233</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892909</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850727</v>
       </c>
       <c r="L46" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563531</v>
       </c>
       <c r="M46" t="n">
         <v>102.3944289806455</v>
@@ -38189,10 +38189,10 @@
         <v>107.8966131767807</v>
       </c>
       <c r="O46" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769685</v>
       </c>
       <c r="P46" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084165</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
